--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2093.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2093.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.431059509078126</v>
+        <v>3.510352849960327</v>
       </c>
       <c r="B1">
-        <v>3.235714169247177</v>
+        <v>2.77774715423584</v>
       </c>
       <c r="C1">
-        <v>2.87634202391555</v>
+        <v>2.423213958740234</v>
       </c>
       <c r="D1">
-        <v>3.163669824351842</v>
+        <v>2.613227128982544</v>
       </c>
       <c r="E1">
-        <v>2.49110436400304</v>
+        <v>2.872695684432983</v>
       </c>
     </row>
   </sheetData>
